--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757146.5514982929</v>
+        <v>817982.0264099928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214403.5300912542</v>
+        <v>199680.3111927226</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.57566235103577</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>114.8502291812678</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1508,7 +1508,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="X13" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>51.47690758762513</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9124227879787</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>113.2788623889627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>192.1094872182895</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>201.330287938294</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>291.0318209494275</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>222.3536427742461</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23.35455705266789</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.4182428509135</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.467412544855456</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.2386140365967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>14.48628953405889</v>
       </c>
       <c r="W26" t="n">
-        <v>124.345247921441</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6.406725926341479</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>87.6227527597793</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>91.72166227029885</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>121.008333045775</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>88.50618688193634</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>89.06613335611772</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>116.6161081404562</v>
       </c>
       <c r="V35" t="n">
-        <v>254.7862334608606</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>342.0186333331417</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>193.1441991023016</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>84.45262105857526</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>99.69856304335892</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>90.73779827449012</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>48.68278626299279</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>134.7908676168168</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>88.56530809765886</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.2570633735997</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>30.28266751616613</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4372,10 +4372,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,10 +4685,10 @@
         <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>283.2696759935595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>75.41817578802664</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4764,7 +4764,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4928,7 +4928,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4986,10 +4986,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>709.2075429298502</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C11" t="n">
-        <v>593.1972104235191</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D11" t="n">
-        <v>593.1972104235191</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500978</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2212.181128500978</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>1859.412473230863</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X11" t="n">
-        <v>1485.946714969784</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1095.807382993972</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5141,16 +5141,16 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>246.1363086691492</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>246.1363086691492</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2468.974726981256</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2468.974726981256</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2116.206071711142</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1742.740313450062</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1352.60098147425</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5366,13 +5366,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5384,16 +5384,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.01613615165607</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.01613615165607</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1150.78176403888</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.78176403888</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D17" t="n">
-        <v>1150.78176403888</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F17" t="n">
         <v>625.3727659270879</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2053.258259745767</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>1722.195372402197</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="X17" t="n">
-        <v>1540.921096014692</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="Y17" t="n">
-        <v>1150.78176403888</v>
+        <v>1369.426717132083</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5618,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.918182229333</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1260.958309882601</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>849.9724050929931</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>432.00859699118</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W20" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X20" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y20" t="n">
-        <v>1920.918182229333</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5834,22 +5834,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E22" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>77.53344348972595</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>77.53344348972595</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245969</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245969</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8405610245969</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.4233909876363</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>882.8926947117852</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C23" t="n">
         <v>882.8926947117852</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X23" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y23" t="n">
-        <v>882.8926947117852</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="24">
@@ -6083,13 +6083,13 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1226.657559460833</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C26" t="n">
-        <v>857.6950425204218</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="W26" t="n">
-        <v>1986.723157786035</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="X26" t="n">
-        <v>1613.257399524955</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y26" t="n">
-        <v>1613.257399524955</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6314,16 +6314,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174722</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.8926947117852</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8926947117852</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2385.866280282913</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V29" t="n">
-        <v>2385.866280282913</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2033.097625012799</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X29" t="n">
-        <v>1659.631866751719</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y29" t="n">
-        <v>1269.492534775907</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6563,10 +6563,10 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1314.387741597311</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="C32" t="n">
-        <v>945.4252246568992</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D32" t="n">
-        <v>587.1595260501488</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E32" t="n">
-        <v>587.1595260501488</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F32" t="n">
-        <v>176.1736212605412</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>176.1736212605412</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843237</v>
+        <v>1904.146272703407</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573123</v>
+        <v>1551.377617433293</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.527073573123</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="Y32" t="n">
-        <v>1314.387741597311</v>
+        <v>1177.911859172214</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6800,22 +6800,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D34" t="n">
-        <v>438.7118141694737</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E34" t="n">
-        <v>290.7987205870806</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F34" t="n">
-        <v>143.9087730891702</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
         <v>882.8926947117852</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2348.148865236162</v>
       </c>
       <c r="V35" t="n">
-        <v>1967.39280684973</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="W35" t="n">
-        <v>1614.624151579615</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X35" t="n">
-        <v>1241.158393318536</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y35" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7031,28 +7031,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0747340636873</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1228.366061714959</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>1971.274048960885</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="W38" t="n">
-        <v>1618.50539369077</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X38" t="n">
-        <v>1618.50539369077</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y38" t="n">
-        <v>1228.366061714959</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7274,28 +7274,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="C40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="D40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="E40" t="n">
-        <v>138.3857151273827</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F40" t="n">
-        <v>138.3857151273827</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="U40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="V40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="W40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="X40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.3857151273827</v>
+        <v>642.8233063694895</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1610.120910258947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C41" t="n">
-        <v>1241.158393318536</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2386.860082298881</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>2386.860082298881</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W41" t="n">
-        <v>2386.860082298881</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X41" t="n">
-        <v>2386.860082298881</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.720750323069</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7511,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296041</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296041</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6471865296041</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>530.8077940618376</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.157102157134</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>823.1945852167225</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2342.362032458147</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V44" t="n">
-        <v>2342.362032458147</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W44" t="n">
-        <v>2342.362032458147</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X44" t="n">
-        <v>1968.896274197068</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1578.756942221256</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7745,7 +7745,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>473.4444960005476</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="C46" t="n">
-        <v>473.4444960005476</v>
+        <v>528.604248231895</v>
       </c>
       <c r="D46" t="n">
-        <v>323.3278565882118</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E46" t="n">
-        <v>175.4147630058187</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F46" t="n">
-        <v>175.4147630058187</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036446</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005476</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="W46" t="n">
-        <v>473.4444960005476</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="X46" t="n">
-        <v>473.4444960005476</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="Y46" t="n">
-        <v>473.4444960005476</v>
+        <v>697.5404311598019</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,7 +22798,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>352.8864698128427</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23004,10 +23004,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.4685256062839</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,7 +23035,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>107.544508198328</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23226,13 +23226,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>250.4226625897398</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>387.1405660669691</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23469,19 +23469,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>90.76584682581966</v>
       </c>
       <c r="X13" t="n">
-        <v>35.43826180874026</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>199.7472599206642</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>151.3343983106491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>268.6515076832991</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>59.11468028999982</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>74.24107082158002</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>101.5691299901111</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>132.8163317891273</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24177,10 +24177,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>5.616862607170816</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>362.8054792261521</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24259,13 +24259,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.9993246194569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>313.265968936076</v>
       </c>
       <c r="W26" t="n">
-        <v>224.895720795972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>139.0143220965898</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>267.0602888609037</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.5025052379904</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>202.9144397185822</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>239.2460715881986</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>78.24366890293319</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>134.6080593678331</v>
       </c>
       <c r="V35" t="n">
-        <v>72.96602500927435</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25365,16 +25365,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>151.7213978167648</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>23.25425843786581</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>134.6080593678333</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>83.71149628510288</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>140.582484399509</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>265.5743287276487</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>160.4863692337992</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.3523191950915</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>69.58249272688988</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>116.4332998914725</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>260.6756606197541</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>47.05273888545121</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>194.7524379419181</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780712.047042546</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26340,22 +26340,22 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26493,13 +26493,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987919</v>
+        <v>2476.504170048529</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355979</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.72614355982</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="E6" t="n">
-        <v>-257337.0863386783</v>
+        <v>-251875.513967441</v>
       </c>
       <c r="F6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="G6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052115</v>
+        <v>117910.7174764487</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="M6" t="n">
-        <v>67535.72703025967</v>
+        <v>72997.29940149686</v>
       </c>
       <c r="N6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="O6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32086,7 +32086,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32803,7 +32803,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -33034,7 +33034,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638415</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
@@ -33751,7 +33751,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479577</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,16 +35734,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918231</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
